--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,12 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
         <v>0.339264</v>
       </c>
       <c r="I2">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J2">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.158112</v>
+        <v>0.6189250000000001</v>
       </c>
       <c r="N2">
-        <v>0.474336</v>
+        <v>1.856775</v>
       </c>
       <c r="O2">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454774</v>
       </c>
       <c r="P2">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454775</v>
       </c>
       <c r="Q2">
-        <v>0.017880569856</v>
+        <v>0.06999299040000001</v>
       </c>
       <c r="R2">
-        <v>0.160925128704</v>
+        <v>0.6299369136</v>
       </c>
       <c r="S2">
-        <v>0.00198799729304077</v>
+        <v>0.03143369241400655</v>
       </c>
       <c r="T2">
-        <v>0.001987997293040769</v>
+        <v>0.03143369241400656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +608,10 @@
         <v>0.339264</v>
       </c>
       <c r="I3">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J3">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +626,10 @@
         <v>15.216364</v>
       </c>
       <c r="O3">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349575</v>
       </c>
       <c r="P3">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349576</v>
       </c>
       <c r="Q3">
         <v>0.573596057344</v>
@@ -641,10 +638,10 @@
         <v>5.162364516096</v>
       </c>
       <c r="S3">
-        <v>0.06377354963975539</v>
+        <v>0.2576006816310873</v>
       </c>
       <c r="T3">
-        <v>0.06377354963975539</v>
+        <v>0.2576006816310874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +670,10 @@
         <v>0.339264</v>
       </c>
       <c r="I4">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J4">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.010494</v>
+        <v>0.01220666666666667</v>
       </c>
       <c r="N4">
-        <v>0.031482</v>
+        <v>0.03662</v>
       </c>
       <c r="O4">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="P4">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="Q4">
-        <v>0.001186745472</v>
+        <v>0.00138042752</v>
       </c>
       <c r="R4">
-        <v>0.010680709248</v>
+        <v>0.01242384768</v>
       </c>
       <c r="S4">
-        <v>0.0001319447201551421</v>
+        <v>0.0006199468520423421</v>
       </c>
       <c r="T4">
-        <v>0.0001319447201551421</v>
+        <v>0.0006199468520423422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +732,10 @@
         <v>0.339264</v>
       </c>
       <c r="I5">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="J5">
-        <v>0.1219822986449288</v>
+        <v>0.3269336956678857</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.460928333333334</v>
+        <v>0.7340256666666667</v>
       </c>
       <c r="N5">
-        <v>13.382785</v>
+        <v>2.202077</v>
       </c>
       <c r="O5">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="P5">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="Q5">
-        <v>0.5044774633600001</v>
+        <v>0.08300949459200001</v>
       </c>
       <c r="R5">
-        <v>4.540297170240001</v>
+        <v>0.7470854513280001</v>
       </c>
       <c r="S5">
-        <v>0.05608880699197746</v>
+        <v>0.03727937477074945</v>
       </c>
       <c r="T5">
-        <v>0.05608880699197746</v>
+        <v>0.03727937477074945</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.343595</v>
+        <v>0.084206</v>
       </c>
       <c r="H6">
-        <v>1.030785</v>
+        <v>0.252618</v>
       </c>
       <c r="I6">
-        <v>0.3706185263061005</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J6">
-        <v>0.3706185263061006</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.158112</v>
+        <v>0.6189250000000001</v>
       </c>
       <c r="N6">
-        <v>0.474336</v>
+        <v>1.856775</v>
       </c>
       <c r="O6">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454774</v>
       </c>
       <c r="P6">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454775</v>
       </c>
       <c r="Q6">
-        <v>0.05432649264000001</v>
+        <v>0.05211719855000001</v>
       </c>
       <c r="R6">
-        <v>0.48893843376</v>
+        <v>0.46905478695</v>
       </c>
       <c r="S6">
-        <v>0.00604012742202836</v>
+        <v>0.02340571504858018</v>
       </c>
       <c r="T6">
-        <v>0.00604012742202836</v>
+        <v>0.02340571504858019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +844,22 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.343595</v>
+        <v>0.084206</v>
       </c>
       <c r="H7">
-        <v>1.030785</v>
+        <v>0.252618</v>
       </c>
       <c r="I7">
-        <v>0.3706185263061005</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J7">
-        <v>0.3706185263061006</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -877,22 +874,22 @@
         <v>15.216364</v>
       </c>
       <c r="O7">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349575</v>
       </c>
       <c r="P7">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349576</v>
       </c>
       <c r="Q7">
-        <v>1.742755529526667</v>
+        <v>0.4271030489946666</v>
       </c>
       <c r="R7">
-        <v>15.68479976574</v>
+        <v>3.843927440952</v>
       </c>
       <c r="S7">
-        <v>0.1937630233841942</v>
+        <v>0.191811005565819</v>
       </c>
       <c r="T7">
-        <v>0.1937630233841942</v>
+        <v>0.1918110055658191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.343595</v>
+        <v>0.084206</v>
       </c>
       <c r="H8">
-        <v>1.030785</v>
+        <v>0.252618</v>
       </c>
       <c r="I8">
-        <v>0.3706185263061005</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J8">
-        <v>0.3706185263061006</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.010494</v>
+        <v>0.01220666666666667</v>
       </c>
       <c r="N8">
-        <v>0.031482</v>
+        <v>0.03662</v>
       </c>
       <c r="O8">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="P8">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="Q8">
-        <v>0.00360568593</v>
+        <v>0.001027874573333333</v>
       </c>
       <c r="R8">
-        <v>0.03245117337</v>
+        <v>0.00925087116</v>
       </c>
       <c r="S8">
-        <v>0.0004008873277598513</v>
+        <v>0.0004616161274677902</v>
       </c>
       <c r="T8">
-        <v>0.0004008873277598513</v>
+        <v>0.0004616161274677903</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.343595</v>
+        <v>0.084206</v>
       </c>
       <c r="H9">
-        <v>1.030785</v>
+        <v>0.252618</v>
       </c>
       <c r="I9">
-        <v>0.3706185263061005</v>
+        <v>0.2434367817753429</v>
       </c>
       <c r="J9">
-        <v>0.3706185263061006</v>
+        <v>0.243436781775343</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.460928333333334</v>
+        <v>0.7340256666666667</v>
       </c>
       <c r="N9">
-        <v>13.382785</v>
+        <v>2.202077</v>
       </c>
       <c r="O9">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="P9">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="Q9">
-        <v>1.532752670691667</v>
+        <v>0.06180936528733334</v>
       </c>
       <c r="R9">
-        <v>13.794774036225</v>
+        <v>0.556284287586</v>
       </c>
       <c r="S9">
-        <v>0.1704144881721181</v>
+        <v>0.02775844503347594</v>
       </c>
       <c r="T9">
-        <v>0.1704144881721181</v>
+        <v>0.02775844503347595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.244596</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H10">
-        <v>0.733788</v>
+        <v>0.265777</v>
       </c>
       <c r="I10">
-        <v>0.2638333184719421</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J10">
-        <v>0.2638333184719422</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.158112</v>
+        <v>0.6189250000000001</v>
       </c>
       <c r="N10">
-        <v>0.474336</v>
+        <v>1.856775</v>
       </c>
       <c r="O10">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454774</v>
       </c>
       <c r="P10">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454775</v>
       </c>
       <c r="Q10">
-        <v>0.038673562752</v>
+        <v>0.05483200990833333</v>
       </c>
       <c r="R10">
-        <v>0.348062064768</v>
+        <v>0.493488089175</v>
       </c>
       <c r="S10">
-        <v>0.004299803567917021</v>
+        <v>0.02462493064020178</v>
       </c>
       <c r="T10">
-        <v>0.004299803567917021</v>
+        <v>0.02462493064020179</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.244596</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H11">
-        <v>0.733788</v>
+        <v>0.265777</v>
       </c>
       <c r="I11">
-        <v>0.2638333184719421</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J11">
-        <v>0.2638333184719422</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1125,22 +1122,22 @@
         <v>15.216364</v>
       </c>
       <c r="O11">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349575</v>
       </c>
       <c r="P11">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349576</v>
       </c>
       <c r="Q11">
-        <v>1.240620589648</v>
+        <v>0.4493510638697777</v>
       </c>
       <c r="R11">
-        <v>11.165585306832</v>
+        <v>4.044159574827999</v>
       </c>
       <c r="S11">
-        <v>0.137934662808482</v>
+        <v>0.2018025383237405</v>
       </c>
       <c r="T11">
-        <v>0.137934662808482</v>
+        <v>0.2018025383237405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.244596</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H12">
-        <v>0.733788</v>
+        <v>0.265777</v>
       </c>
       <c r="I12">
-        <v>0.2638333184719421</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J12">
-        <v>0.2638333184719422</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.010494</v>
+        <v>0.01220666666666667</v>
       </c>
       <c r="N12">
-        <v>0.031482</v>
+        <v>0.03662</v>
       </c>
       <c r="O12">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="P12">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="Q12">
-        <v>0.002566790424</v>
+        <v>0.001081417082222222</v>
       </c>
       <c r="R12">
-        <v>0.023101113816</v>
+        <v>0.009732753739999999</v>
       </c>
       <c r="S12">
-        <v>0.0002853808606666237</v>
+        <v>0.0004856619461400489</v>
       </c>
       <c r="T12">
-        <v>0.0002853808606666238</v>
+        <v>0.0004856619461400489</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.244596</v>
+        <v>0.08859233333333333</v>
       </c>
       <c r="H13">
-        <v>0.733788</v>
+        <v>0.265777</v>
       </c>
       <c r="I13">
-        <v>0.2638333184719421</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="J13">
-        <v>0.2638333184719422</v>
+        <v>0.2561175274521424</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.460928333333334</v>
+        <v>0.7340256666666667</v>
       </c>
       <c r="N13">
-        <v>13.382785</v>
+        <v>2.202077</v>
       </c>
       <c r="O13">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="P13">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="Q13">
-        <v>1.09112522662</v>
+        <v>0.06502904653655556</v>
       </c>
       <c r="R13">
-        <v>9.820127039580001</v>
+        <v>0.585261418829</v>
       </c>
       <c r="S13">
-        <v>0.1213134712348765</v>
+        <v>0.02920439654206009</v>
       </c>
       <c r="T13">
-        <v>0.1213134712348765</v>
+        <v>0.02920439654206009</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2258063333333333</v>
+        <v>0.06001866666666666</v>
       </c>
       <c r="H14">
-        <v>0.677419</v>
+        <v>0.180056</v>
       </c>
       <c r="I14">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="J14">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.158112</v>
+        <v>0.6189250000000001</v>
       </c>
       <c r="N14">
-        <v>0.474336</v>
+        <v>1.856775</v>
       </c>
       <c r="O14">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454774</v>
       </c>
       <c r="P14">
-        <v>0.01629742442243621</v>
+        <v>0.09614699503454775</v>
       </c>
       <c r="Q14">
-        <v>0.035702690976</v>
+        <v>0.03714705326666667</v>
       </c>
       <c r="R14">
-        <v>0.321324218784</v>
+        <v>0.3343234794</v>
       </c>
       <c r="S14">
-        <v>0.003969496139450059</v>
+        <v>0.01668265693175923</v>
       </c>
       <c r="T14">
-        <v>0.003969496139450059</v>
+        <v>0.01668265693175923</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2258063333333333</v>
+        <v>0.06001866666666666</v>
       </c>
       <c r="H15">
-        <v>0.677419</v>
+        <v>0.180056</v>
       </c>
       <c r="I15">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="J15">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1370,22 @@
         <v>15.216364</v>
       </c>
       <c r="O15">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349575</v>
       </c>
       <c r="P15">
-        <v>0.5228098695318911</v>
+        <v>0.7879294335349576</v>
       </c>
       <c r="Q15">
-        <v>1.145317120501778</v>
+        <v>0.3044219595982222</v>
       </c>
       <c r="R15">
-        <v>10.307854084516</v>
+        <v>2.739797636384</v>
       </c>
       <c r="S15">
-        <v>0.1273386336994596</v>
+        <v>0.1367152080143106</v>
       </c>
       <c r="T15">
-        <v>0.1273386336994596</v>
+        <v>0.1367152080143106</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1411,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2258063333333333</v>
+        <v>0.06001866666666666</v>
       </c>
       <c r="H16">
-        <v>0.677419</v>
+        <v>0.180056</v>
       </c>
       <c r="I16">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="J16">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.010494</v>
+        <v>0.01220666666666667</v>
       </c>
       <c r="N16">
-        <v>0.031482</v>
+        <v>0.03662</v>
       </c>
       <c r="O16">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="P16">
-        <v>0.001081671042609325</v>
+        <v>0.001896246426284896</v>
       </c>
       <c r="Q16">
-        <v>0.002369611662</v>
+        <v>0.0007326278577777778</v>
       </c>
       <c r="R16">
-        <v>0.021326504958</v>
+        <v>0.00659365072</v>
       </c>
       <c r="S16">
-        <v>0.0002634581340277077</v>
+        <v>0.000329021500634715</v>
       </c>
       <c r="T16">
-        <v>0.0002634581340277077</v>
+        <v>0.000329021500634715</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2258063333333333</v>
+        <v>0.06001866666666666</v>
       </c>
       <c r="H17">
-        <v>0.677419</v>
+        <v>0.180056</v>
       </c>
       <c r="I17">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="J17">
-        <v>0.2435658565770285</v>
+        <v>0.1735119951046289</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.460928333333334</v>
+        <v>0.7340256666666667</v>
       </c>
       <c r="N17">
-        <v>13.382785</v>
+        <v>2.202077</v>
       </c>
       <c r="O17">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="P17">
-        <v>0.4598110350030633</v>
+        <v>0.1140273250042099</v>
       </c>
       <c r="Q17">
-        <v>1.007305870212778</v>
+        <v>0.04405524181244445</v>
       </c>
       <c r="R17">
-        <v>9.065752831915001</v>
+        <v>0.396497176312</v>
       </c>
       <c r="S17">
-        <v>0.1119942686040911</v>
+        <v>0.01978510865792439</v>
       </c>
       <c r="T17">
-        <v>0.1119942686040911</v>
+        <v>0.01978510865792439</v>
       </c>
     </row>
   </sheetData>
